--- a/mappingCorps/ig/FRObservationPregnancyLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRObservationPregnancyLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRObservationPregnancyLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRObservationPregnancyLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
